--- a/Source/BlueCat/Resouce/TaskConfig/task.xlsx
+++ b/Source/BlueCat/Resouce/TaskConfig/task.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="UserScreenInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="CustomLayoutInfo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1246,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3446,7 +3446,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/Source/BlueCat/Resouce/TaskConfig/task.xlsx
+++ b/Source/BlueCat/Resouce/TaskConfig/task.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
-    <sheet name="UserScreenInfo" sheetId="2" r:id="rId2"/>
-    <sheet name="CustomLayoutInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="CustomLayout" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="231">
   <si>
     <t>View</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,244 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>O.Menu.Trade.Future_Single_DealPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_AdvPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_MoneyPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureSingleOrder</t>
+  </si>
+  <si>
+    <t>FutureSingleEntrust</t>
+  </si>
+  <si>
+    <t>FutureSingleDeal</t>
+  </si>
+  <si>
+    <t>FutureSingleAdv</t>
+  </si>
+  <si>
+    <t>FutureSingleMoney</t>
+  </si>
+  <si>
+    <t>FutureTrade_MultiFundGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiCombiHolding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiTrade_FutureHoldPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiTrade_FutureEntrustPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiTrade_FutureOrderPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiTrade_FutureDealPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiTrade_FutureLocalPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiTrade_FuturePrePanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiTrade_FutureCapitalPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiEntrust</t>
+  </si>
+  <si>
+    <t>FutureMultiDeal</t>
+  </si>
+  <si>
+    <t>FutureMultiAdv</t>
+  </si>
+  <si>
+    <t>FutureMultiLocalAdv</t>
+  </si>
+  <si>
+    <t>FutureMultiMoney</t>
+  </si>
+  <si>
+    <t>FutureMultiOrder</t>
+  </si>
+  <si>
+    <t>FutureMultiHolding</t>
+  </si>
+  <si>
+    <t>FutureMultiFundGroup</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Position</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_CombiPosition</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Order</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Entrust</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Deal</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Adv</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Lct</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Asset</t>
+  </si>
+  <si>
+    <t>ScreenTradeModel_CombiPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Entrust</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_FuturePosGrid</t>
+  </si>
+  <si>
+    <t>Screen_FutureCombiPosGrid</t>
+  </si>
+  <si>
+    <t>Screen_PosQry</t>
+  </si>
+  <si>
+    <t>Screen_CombiPosQry</t>
+  </si>
+  <si>
+    <t>O.BizControl.Future_Single_DealPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future_Single_AdvPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.FutureTrade_Single_EntrustPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_LocaladvPanel</t>
+  </si>
+  <si>
+    <t>O.BizControl.Future_Single_AssetPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowHoldUnitModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowPositionModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowHoldByContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowHoldByCodeModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowHoldByCodeEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowPositionSumByContract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowPositionSumByFundCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowPositionSumByFundCodeEnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureSingleCombiHolding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.FutureCombiPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowDealDetailModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowMoneyModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowDealDetailModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowMoneyModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_OrderPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>O.Menu.Trade.Future_Single_EntrustPanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,30 +316,493 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FutureSingleOrder</t>
-  </si>
-  <si>
-    <t>FutureSingleEntrust</t>
-  </si>
-  <si>
-    <t>FutureSingleDeal</t>
-  </si>
-  <si>
-    <t>FutureSingleAdv</t>
-  </si>
-  <si>
-    <t>FutureSingleMoney</t>
+    <t>O.Menu.Trade.Future.TableRowDealByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowDealUnitByCodeModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowDealUnitByEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowAdvEntrustByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowEntrustByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowDealByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowDealUnitByCodeModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowDealUnitByEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowAdvEntrustByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowLocalAdvByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowMoneyModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridHoldUnitModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridHoldByCodeModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridHoldByCodeEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowPositionModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowPositionSumByFundCodeEnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.FutureCombiPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridEntrustViewModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridDealDetailModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridDealUnitByCodeModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridDealUnitByEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridTradeAssetModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_CombiPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Deal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Adv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Lct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_FuturePosGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_FutureCombiPosGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future_Single_DealPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future_Single_AdvPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_LocaladvPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future_Single_AssetPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridHoldByCodeEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractValueDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_FuturePosGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridHoldByCodeEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContractValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerPrice</t>
+  </si>
+  <si>
+    <t>TriggerCondition</t>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenClosed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenClose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Lct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>OpenClosed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_AdvPanel</t>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiTrade_FutureLocalPanel</t>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvByBatchModel</t>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_HoldingPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureMultiTrade_FutureEntrustPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowHoldByContact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_SingleQuotePanel</t>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_SingleQuotePanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_CombiQuotePanel</t>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_CombiQuotePanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowMoneyModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FutureTrade_MultiFundGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FutureMultiCombiHolding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultiTrade_FutureHoldPanel</t>
+    <t>O.Menu.Trade.Future_Single_SingleQuotePanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowQuoteSingleModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowQuoteSingleModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_CombiQuotePanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowQuoteCombiModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowQuoteCombiModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridHoldByCodeModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_DealQry</t>
+  </si>
+  <si>
+    <t>Sreen_AssetQry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_LocaladvPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_LctQry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_AdvQry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen_EntQry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureSingleHolding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridView_MultiFundGroup</t>
+  </si>
+  <si>
+    <t>FutureTrade_MultiFundGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.Multi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.MultiFund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridView_MultiFundGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.Multi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.MultiFund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridTradeAssetModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowEntrustByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.FutureCombiPosition</t>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowHoldUnitModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_DealPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowDealUnitByEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowDealUnitByCodeModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowDealUnitByEntModel</t>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowDealUnitByEntModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_AdvPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FutureSingleLocalAdv</t>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Derivative.TableRowLocalAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future_Single_AdvPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScreenTradeModel_Adv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridAdvEntrustModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvBatchNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdvBatchSerialNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future_Single_EntrustPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.Menu.Trade.Future.TableRowEntrustModel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,103 +810,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FutureMultiTrade_FutureOrderPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureMultiTrade_FutureDealPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureMultiTrade_FutureLocalPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureMultiTrade_FuturePrePanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureMultiTrade_FutureCapitalPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureMultiEntrust</t>
-  </si>
-  <si>
-    <t>FutureMultiDeal</t>
-  </si>
-  <si>
-    <t>FutureMultiAdv</t>
-  </si>
-  <si>
-    <t>FutureMultiLocalAdv</t>
-  </si>
-  <si>
-    <t>FutureMultiMoney</t>
-  </si>
-  <si>
-    <t>FutureMultiOrder</t>
-  </si>
-  <si>
-    <t>FutureMultiHolding</t>
-  </si>
-  <si>
-    <t>FutureMultiFundGroup</t>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Position</t>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_CombiPosition</t>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Order</t>
+    <t>O.Menu.Trade.Future.TableRowEntrustByBatchModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ScreenTradeModel_Entrust</t>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Deal</t>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Adv</t>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Lct</t>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Asset</t>
-  </si>
-  <si>
-    <t>ScreenTradeModel_CombiPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Entrust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen_FuturePosGrid</t>
-  </si>
-  <si>
-    <t>Screen_FutureCombiPosGrid</t>
-  </si>
-  <si>
-    <t>Screen_PosQry</t>
-  </si>
-  <si>
-    <t>Screen_CombiPosQry</t>
-  </si>
-  <si>
-    <t>O.BizControl.Future_Single_DealPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future_Single_AdvPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O.BizControl.Future.GridEntrustViewModel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,561 +826,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>O.Menu.Trade.Future_Single_LocaladvPanel</t>
-  </si>
-  <si>
-    <t>O.BizControl.Future_Single_AssetPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowHoldUnitModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowPositionModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowHoldByContact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowHoldByCodeModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowHoldByCodeEntModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowPositionSumByContract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowPositionSumByFundCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowPositionSumByFundCodeEnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureSingleCombiHolding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.FutureCombiPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowDealDetailModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowMoneyModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowDealDetailModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowMoneyModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_OrderPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_EntrustPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_DealPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_AdvPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_MoneyPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowEntrustByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowDealByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowDealUnitByCodeModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowDealUnitByEntModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowAdvEntrustByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.GridLocalAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.GridLocalAdvByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowEntrustByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowDealByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowDealUnitByCodeModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowDealUnitByEntModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowAdvEntrustByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowLocalAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowLocalAdvByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowMoneyModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridHoldUnitModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridHoldByCodeModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridHoldByCodeEntModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowPositionModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowPositionSumByContract</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowPositionSumByFundCodeEnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.FutureCombiPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridEntrustViewModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridDealDetailModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridDealUnitByCodeModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridDealUnitByEntModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridTradeAssetModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridLocalAdvByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_CombiPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Entrust</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Deal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Deal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Adv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Lct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen_FuturePosGrid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen_FutureCombiPosGrid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.FutureTrade_Single_EntrustPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future_Single_DealPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future_Single_AdvPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_LocaladvPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future_Single_AssetPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridHoldByCodeEntModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContractValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContractValueDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen_FuturePosGrid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridHoldByCodeEntModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContractValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerPrice</t>
-  </si>
-  <si>
-    <t>TriggerCondition</t>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowLocalAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenClosed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OpenClose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ScreenTradeModel_Lct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>OpenClosed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_AdvPanel</t>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureMultiTrade_FutureLocalPanel</t>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridLocalAdvByBatchModel</t>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_HoldingPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureMultiTrade_FutureEntrustPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowHoldByContact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_SingleQuotePanel</t>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_SingleQuotePanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_CombiQuotePanel</t>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_CombiQuotePanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowMoneyModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureTrade_MultiFundGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_SingleQuotePanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowQuoteSingleModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowQuoteSingleModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_CombiQuotePanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowQuoteCombiModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowQuoteCombiModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridHoldByCodeModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen_DealQry</t>
-  </si>
-  <si>
-    <t>Sreen_AssetQry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_LocaladvPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen_LctQry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen_AdvQry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Screen_EntQry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FutureSingleHolding</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GridView_MultiFundGroup</t>
-  </si>
-  <si>
-    <t>FutureTrade_MultiFundGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.Multi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.MultiFund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GridView_MultiFundGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.Multi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.MultiFund</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridTradeAssetModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.GridLocalAdvEntrustModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowEntrustByBatchModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Future.FutureCombiPosition</t>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowHoldUnitModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future_Single_DealPanel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowDealUnitByEntModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.Menu.Trade.Future.TableRowDealUnitByCodeModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowDealUnitByEntModel</t>
-  </si>
-  <si>
-    <t>O.BizControl.Derivative.TableRowDealUnitByEntModel</t>
+    <t>CurrentFieldValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormerFieldValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"panKou"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"pankou"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"tabQurey"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"oTabControl1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"OrderPanel"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"OrderPanelForSingleTrade"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"FuturePankouPanel"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"PankouPanel"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"FutureMultiOrderPanel"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"OrderPanelForMultiTrade"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"预埋单"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"埋单"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"本地套利"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"本地套利单"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;MenuName&gt;FutureSingleTrade&lt;/MenuName&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;MenuName&gt;FutureSingle&lt;/MenuName&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +1044,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -943,6 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1244,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,7 +1414,7 @@
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1300,12 +1428,12 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1338,12 +1466,12 @@
         <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1357,12 +1485,12 @@
         <v>8</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1376,12 +1504,12 @@
         <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1395,12 +1523,12 @@
         <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1414,12 +1542,12 @@
         <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1433,12 +1561,12 @@
         <v>8</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1452,12 +1580,12 @@
         <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1471,12 +1599,12 @@
         <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1490,12 +1618,12 @@
         <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1509,12 +1637,12 @@
         <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1528,12 +1656,12 @@
         <v>8</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1547,12 +1675,12 @@
         <v>8</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1566,12 +1694,12 @@
         <v>8</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1585,12 +1713,12 @@
         <v>8</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1604,12 +1732,12 @@
         <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1623,12 +1751,12 @@
         <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1642,12 +1770,12 @@
         <v>8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1661,12 +1789,12 @@
         <v>8</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1680,12 +1808,12 @@
         <v>8</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1699,12 +1827,12 @@
         <v>8</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1718,12 +1846,12 @@
         <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1737,12 +1865,12 @@
         <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1756,12 +1884,12 @@
         <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1775,12 +1903,12 @@
         <v>8</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1794,12 +1922,12 @@
         <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1813,12 +1941,12 @@
         <v>8</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1832,12 +1960,12 @@
         <v>8</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1851,12 +1979,12 @@
         <v>8</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1870,12 +1998,12 @@
         <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1889,12 +2017,12 @@
         <v>8</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1908,12 +2036,12 @@
         <v>8</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1927,12 +2055,12 @@
         <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1946,7 +2074,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1954,20 +2082,20 @@
         <v>9</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E37" s="3">
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -1975,20 +2103,20 @@
         <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="3">
         <v>2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -1996,20 +2124,20 @@
         <v>9</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" s="3">
         <v>2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -2017,112 +2145,112 @@
         <v>9</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" s="3">
         <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="3">
         <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="3">
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="3">
         <v>2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E44" s="3">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3" t="s">
@@ -2132,18 +2260,18 @@
         <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
@@ -2153,39 +2281,39 @@
         <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" s="3">
         <v>2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
@@ -2195,39 +2323,39 @@
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E49" s="3">
         <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
@@ -2237,18 +2365,18 @@
         <v>2</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
@@ -2258,18 +2386,18 @@
         <v>2</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
@@ -2279,18 +2407,18 @@
         <v>2</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
@@ -2300,18 +2428,18 @@
         <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
@@ -2321,18 +2449,18 @@
         <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
@@ -2342,18 +2470,18 @@
         <v>2</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
@@ -2363,18 +2491,18 @@
         <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>70</v>
+        <v>207</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
@@ -2384,18 +2512,18 @@
         <v>2</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
@@ -2405,18 +2533,18 @@
         <v>2</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
@@ -2426,18 +2554,18 @@
         <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
@@ -2447,18 +2575,18 @@
         <v>2</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
@@ -2468,18 +2596,18 @@
         <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
@@ -2489,18 +2617,18 @@
         <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
@@ -2510,18 +2638,18 @@
         <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
@@ -2531,18 +2659,18 @@
         <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
@@ -2552,18 +2680,18 @@
         <v>2</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
@@ -2573,18 +2701,18 @@
         <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
@@ -2594,18 +2722,18 @@
         <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
@@ -2615,18 +2743,18 @@
         <v>2</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
@@ -2636,18 +2764,18 @@
         <v>2</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
@@ -2657,18 +2785,18 @@
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
@@ -2678,18 +2806,18 @@
         <v>2</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
@@ -2699,18 +2827,18 @@
         <v>2</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
@@ -2720,18 +2848,18 @@
         <v>2</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
@@ -2741,18 +2869,18 @@
         <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
@@ -2762,18 +2890,18 @@
         <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
@@ -2783,18 +2911,18 @@
         <v>2</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
@@ -2804,18 +2932,18 @@
         <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
@@ -2825,18 +2953,18 @@
         <v>2</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
@@ -2846,18 +2974,18 @@
         <v>2</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
@@ -2867,18 +2995,18 @@
         <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
@@ -2888,18 +3016,18 @@
         <v>2</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
@@ -2909,18 +3037,18 @@
         <v>2</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
@@ -2930,18 +3058,18 @@
         <v>2</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
@@ -2951,18 +3079,18 @@
         <v>2</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
@@ -2972,18 +3100,18 @@
         <v>2</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
@@ -2993,18 +3121,18 @@
         <v>2</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -3014,18 +3142,18 @@
         <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
@@ -3035,18 +3163,18 @@
         <v>2</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
@@ -3056,370 +3184,527 @@
         <v>2</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>165</v>
+        <v>108</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="E90" s="3">
         <v>2</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="E91" s="3">
         <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E92" s="3">
         <v>2</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E93" s="3">
         <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A94" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E94" s="8">
-        <v>2</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>135</v>
+      <c r="A94" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E95" s="8">
-        <v>2</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>135</v>
+      <c r="A95" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" s="3">
+        <v>2</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A96" s="8" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="E96" s="8">
         <v>2</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A97" s="8" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E97" s="8">
         <v>2</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A98" s="8" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="E98" s="8">
         <v>2</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A99" s="8" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="E99" s="8">
         <v>2</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A100" s="8" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B100" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E100" s="8">
+        <v>2</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="8">
-        <v>2</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="G100" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A101" s="8" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="E101" s="8">
         <v>2</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A102" s="8" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E102" s="8">
         <v>2</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A103" s="8" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="B103" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E103" s="8">
+        <v>2</v>
+      </c>
+      <c r="F103" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E103" s="8">
-        <v>2</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="G103" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A104" s="8" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="E104" s="8">
         <v>2</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A105" s="8" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C105" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="8">
+        <v>2</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A106" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E106" s="8">
+        <v>2</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A107" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="B107" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E105" s="8">
-        <v>2</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="G105" s="8" t="s">
+      <c r="D107" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E107" s="8">
+        <v>2</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A108" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>147</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E108" s="8">
+        <v>2</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A109" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" s="8">
+        <v>2</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A110" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="8">
+        <v>2</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A111" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E111" s="8">
+        <v>2</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A112" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E112" s="8">
+        <v>2</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3430,6 +3715,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="44.875" customWidth="1"/>
+    <col min="2" max="2" width="41.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3440,19 +3818,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Source/BlueCat/Resouce/TaskConfig/task.xlsx
+++ b/Source/BlueCat/Resouce/TaskConfig/task.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="CustomLayout" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="UserScreen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="233">
   <si>
     <t>View</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -895,6 +895,14 @@
   </si>
   <si>
     <t>&lt;MenuName&gt;FutureSingle&lt;/MenuName&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ScreenPosPanel"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ScreenCombiPositionPanel"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1083,42 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1083,6 +1126,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="FormerFieldValue"/>
+    <tableColumn id="2" name="CurrentFieldValue"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="FormerFieldValue"/>
+    <tableColumn id="2" name="CurrentFieldValue"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3718,8 +3783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3804,18 +3869,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.625" customWidth="1"/>
+    <col min="2" max="2" width="29.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Source/BlueCat/Resouce/TaskConfig/task.xlsx
+++ b/Source/BlueCat/Resouce/TaskConfig/task.xlsx
@@ -898,11 +898,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>"ScreenCombiPositionPanel"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>"ScreenPosPanel"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ScreenCombiPositionPanel"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3784,7 +3784,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3880,7 +3880,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Source/BlueCat/Resouce/TaskConfig/task.xlsx
+++ b/Source/BlueCat/Resouce/TaskConfig/task.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
     <sheet name="CustomLayout" sheetId="2" r:id="rId2"/>
     <sheet name="UserScreen" sheetId="3" r:id="rId3"/>
+    <sheet name="FutureLocalParam" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="239">
   <si>
     <t>View</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -904,6 +905,27 @@
   <si>
     <t>"ScreenPosPanel"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortCutSetOfOrderPanelFunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortCutSetOfAdvPanelFunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortCutSetOfPositionPanelFunc</t>
+  </si>
+  <si>
+    <t>ShortCutSetOfQueryPanelFuntion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;Function&gt;平仓&lt;/Function&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Function&gt;快捷平仓&lt;/Function&gt;</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1079,11 +1101,29 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1129,7 +1169,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:B9" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B9"/>
   <tableColumns count="2">
     <tableColumn id="1" name="FormerFieldValue"/>
@@ -1140,8 +1180,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B2" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B2" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="FormerFieldValue"/>
+    <tableColumn id="2" name="CurrentFieldValue"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表2_4" displayName="表2_4" ref="A1:B5" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
     <tableColumn id="1" name="FormerFieldValue"/>
     <tableColumn id="2" name="CurrentFieldValue"/>
@@ -3879,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3912,4 +3963,68 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>